--- a/MyMojioWebsite/src/com/mojio/xls/Settings.xlsx
+++ b/MyMojioWebsite/src/com/mojio/xls/Settings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="3" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="664" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="664" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,15 +13,17 @@
     <sheet name="SignIn" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="VerifySettingsMenu" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="MyProfileMenu" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="BillingInfoMenu" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="LogOutMenu" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="MyVehiclesMenu" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="MyMojiosMenu" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="SwitchToDevCenterMenu" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="LogOutMenu" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="111">
   <si>
     <t>TCID</t>
   </si>
@@ -44,7 +46,13 @@
     <t>MyProfileMenu</t>
   </si>
   <si>
-    <t>BillingInfoMenu</t>
+    <t>MyVehiclesMenu</t>
+  </si>
+  <si>
+    <t>MyMojiosMenu</t>
+  </si>
+  <si>
+    <t>SwitchToDevCenterMenu</t>
   </si>
   <si>
     <t>LogOutMenu</t>
@@ -65,9 +73,6 @@
     <t>Proceed_on_Fail</t>
   </si>
   <si>
-    <t>Result1</t>
-  </si>
-  <si>
     <t>TS001</t>
   </si>
   <si>
@@ -80,9 +85,6 @@
     <t>config|browserType</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>TS002</t>
   </si>
   <si>
@@ -176,43 +178,115 @@
     <t>col|My_Profile_Text</t>
   </si>
   <si>
-    <t>Verify the Billing Info text</t>
-  </si>
-  <si>
-    <t>settingsBillingInfoXpath</t>
-  </si>
-  <si>
-    <t>col|Billing_Info_Text</t>
+    <t>Verify the My Vehicles text</t>
+  </si>
+  <si>
+    <t>settingsMyVehiclesXpath</t>
+  </si>
+  <si>
+    <t>col|My_Vehicles_Text</t>
+  </si>
+  <si>
+    <t>Verify the My Mojios text</t>
+  </si>
+  <si>
+    <t>settingsMyMojiosXpath</t>
+  </si>
+  <si>
+    <t>col|My_Mojios_Text</t>
+  </si>
+  <si>
+    <t>Verify the Switch To Dev Center text</t>
+  </si>
+  <si>
+    <t>settingsSwitchDevCenterXpath</t>
+  </si>
+  <si>
+    <t>col|Switch_Dev_Center_Text</t>
   </si>
   <si>
     <t>Verify the Log out text</t>
   </si>
   <si>
+    <t>col|Log_Out_Text</t>
+  </si>
+  <si>
+    <t>TS008</t>
+  </si>
+  <si>
+    <t>Close Browser</t>
+  </si>
+  <si>
+    <t>closebrowser</t>
+  </si>
+  <si>
+    <t>TS009</t>
+  </si>
+  <si>
+    <t>TS010</t>
+  </si>
+  <si>
+    <t>Click on My Profile</t>
+  </si>
+  <si>
+    <t>TS011</t>
+  </si>
+  <si>
+    <t>Verify the URL</t>
+  </si>
+  <si>
+    <t>verifyCurrentUrl</t>
+  </si>
+  <si>
+    <t>myProfileUrl</t>
+  </si>
+  <si>
+    <t>TS012</t>
+  </si>
+  <si>
+    <t>Verify My Profile text is present</t>
+  </si>
+  <si>
+    <t>col|My_Profile_Page</t>
+  </si>
+  <si>
+    <t>TS013</t>
+  </si>
+  <si>
+    <t>Click on My Vehicles</t>
+  </si>
+  <si>
+    <t>myVehiclesUrl</t>
+  </si>
+  <si>
+    <t>Verify My Vehicles text is present</t>
+  </si>
+  <si>
+    <t>col|My_Vehicles_Page</t>
+  </si>
+  <si>
+    <t>myMojioUrl</t>
+  </si>
+  <si>
+    <t>Verify My Mojios text is present</t>
+  </si>
+  <si>
+    <t>col|My_Mojios_Page</t>
+  </si>
+  <si>
+    <t>Verify text is present</t>
+  </si>
+  <si>
+    <t>col|Developer_Center_Page</t>
+  </si>
+  <si>
+    <t>Click on Log Out</t>
+  </si>
+  <si>
     <t>settingsLogoutXpath</t>
   </si>
   <si>
-    <t>col|Log_Out_Text</t>
-  </si>
-  <si>
-    <t>FAIL -- text not verified   Log Out -- Log Out</t>
-  </si>
-  <si>
-    <t>verifyCurrentUrl</t>
-  </si>
-  <si>
-    <t>myProfileUrl</t>
-  </si>
-  <si>
-    <t>col|My_Profile_Page</t>
-  </si>
-  <si>
-    <t>billingInfoUrl</t>
-  </si>
-  <si>
-    <t>col|Billing_Info_Page</t>
-  </si>
-  <si>
-    <t>closeBroswer</t>
+    <t>Verify the Sign In page is displayed</t>
   </si>
   <si>
     <t>Sign_In_Page</t>
@@ -242,7 +316,13 @@
     <t>My_Profile_Text</t>
   </si>
   <si>
-    <t>Billing_Info_Text</t>
+    <t>My_Vehicles_Text</t>
+  </si>
+  <si>
+    <t>My_Mojios_Text</t>
+  </si>
+  <si>
+    <t>Switch_Dev_Center_Text</t>
   </si>
   <si>
     <t>Log_Out_Text</t>
@@ -251,16 +331,31 @@
     <t>My Profile</t>
   </si>
   <si>
-    <t>Billing Information</t>
-  </si>
-  <si>
-    <t>  Log Out</t>
+    <t>My Vehicles</t>
+  </si>
+  <si>
+    <t>My Mojios</t>
+  </si>
+  <si>
+    <t>Switch to Dev Center</t>
+  </si>
+  <si>
+    <t>Log Out</t>
   </si>
   <si>
     <t>My_Profile_Page</t>
   </si>
   <si>
-    <t>Billing_Info_Page</t>
+    <t>My_Vehicles_Page</t>
+  </si>
+  <si>
+    <t>My_Mojios_Page</t>
+  </si>
+  <si>
+    <t>Developer_Center_Page</t>
+  </si>
+  <si>
+    <t>Log in to Mojio or create a new account</t>
   </si>
 </sst>
 </file>
@@ -268,9 +363,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -293,8 +388,15 @@
       <family val="0"/>
       <sz val="10"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10.5"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,12 +407,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -373,7 +469,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -390,6 +486,10 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -398,7 +498,7 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -406,19 +506,19 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="6" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="5" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="6" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -499,18 +599,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B5" activeCellId="0" pane="topLeft" sqref="B5"/>
+      <selection activeCell="C13" activeCellId="0" pane="topLeft" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="30.280612244898" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="25.4234693877551" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="25.2908163265306" collapsed="true"/>
-    <col min="4" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.2908163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.6734693877551"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -566,6 +666,24 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -585,23 +703,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:28"/>
+  <dimension ref="1:79"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="E1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H13" activeCellId="0" pane="topLeft" sqref="H13"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="C1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="I8" activeCellId="0" pane="topLeft" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="31.8571428571429" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="7.0" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="30.6428571428571" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="21.4285714285714" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="38.4285714285714" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="34.1428571428571" collapsed="true"/>
-    <col min="7" max="7" hidden="false" style="0" width="13.8418367346939" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" hidden="false" style="0" width="7.51171875" collapsed="true"/>
-    <col min="9" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.4285714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.4285714285714"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.1428571428571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.6734693877551"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -609,619 +726,1730 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="0" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="G2" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="0" t="s">
-        <v>19</v>
-      </c>
+      <c r="G3" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="0" t="s">
-        <v>19</v>
-      </c>
+      <c r="G4" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="0" t="s">
-        <v>19</v>
-      </c>
+      <c r="G5" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="0" t="s">
-        <v>19</v>
-      </c>
+      <c r="G6" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="0" t="s">
-        <v>19</v>
-      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="0" t="s">
-        <v>19</v>
-      </c>
+      <c r="G8" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10" s="8">
-      <c r="A10" s="7" t="s">
+      <c r="G9" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10" s="7">
+      <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
+      <c r="M10" s="0"/>
+      <c r="N10" s="0"/>
+      <c r="O10" s="0"/>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
+      <c r="S10" s="0"/>
+      <c r="T10" s="0"/>
+      <c r="U10" s="0"/>
+      <c r="V10" s="0"/>
+      <c r="W10" s="0"/>
+      <c r="X10" s="0"/>
+      <c r="Y10" s="0"/>
+      <c r="Z10" s="0"/>
+      <c r="AA10" s="0"/>
+      <c r="AB10" s="0"/>
+      <c r="AC10" s="0"/>
+      <c r="AD10" s="0"/>
+      <c r="AE10" s="0"/>
+      <c r="AF10" s="0"/>
+      <c r="AG10" s="0"/>
+      <c r="AH10" s="0"/>
+      <c r="AI10" s="0"/>
+      <c r="ALX10" s="0"/>
+      <c r="ALY10" s="0"/>
+      <c r="ALZ10" s="0"/>
+      <c r="AMA10" s="0"/>
+      <c r="AMB10" s="0"/>
+      <c r="AMC10" s="0"/>
+      <c r="AMD10" s="0"/>
+      <c r="AME10" s="0"/>
+      <c r="AMF10" s="0"/>
+      <c r="AMG10" s="0"/>
       <c r="AMH10" s="0"/>
       <c r="AMI10" s="0"/>
       <c r="AMJ10" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="11" s="8">
-      <c r="A11" s="7" t="s">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="11" s="7">
+      <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="0"/>
+      <c r="N11" s="0"/>
+      <c r="O11" s="0"/>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
+      <c r="S11" s="0"/>
+      <c r="T11" s="0"/>
+      <c r="U11" s="0"/>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0"/>
+      <c r="X11" s="0"/>
+      <c r="Y11" s="0"/>
+      <c r="Z11" s="0"/>
+      <c r="AA11" s="0"/>
+      <c r="AB11" s="0"/>
+      <c r="AC11" s="0"/>
+      <c r="AD11" s="0"/>
+      <c r="AE11" s="0"/>
+      <c r="AF11" s="0"/>
+      <c r="AG11" s="0"/>
+      <c r="AH11" s="0"/>
+      <c r="AI11" s="0"/>
+      <c r="ALX11" s="0"/>
+      <c r="ALY11" s="0"/>
+      <c r="ALZ11" s="0"/>
+      <c r="AMA11" s="0"/>
+      <c r="AMB11" s="0"/>
+      <c r="AMC11" s="0"/>
+      <c r="AMD11" s="0"/>
+      <c r="AME11" s="0"/>
+      <c r="AMF11" s="0"/>
+      <c r="AMG11" s="0"/>
       <c r="AMH11" s="0"/>
       <c r="AMI11" s="0"/>
       <c r="AMJ11" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="12" s="8">
-      <c r="A12" s="7" t="s">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="12" s="7">
+      <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
+      <c r="M12" s="0"/>
+      <c r="N12" s="0"/>
+      <c r="O12" s="0"/>
+      <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
+      <c r="R12" s="0"/>
+      <c r="S12" s="0"/>
+      <c r="T12" s="0"/>
+      <c r="U12" s="0"/>
+      <c r="V12" s="0"/>
+      <c r="W12" s="0"/>
+      <c r="X12" s="0"/>
+      <c r="Y12" s="0"/>
+      <c r="Z12" s="0"/>
+      <c r="AA12" s="0"/>
+      <c r="AB12" s="0"/>
+      <c r="AC12" s="0"/>
+      <c r="AD12" s="0"/>
+      <c r="AE12" s="0"/>
+      <c r="AF12" s="0"/>
+      <c r="AG12" s="0"/>
+      <c r="AH12" s="0"/>
+      <c r="AI12" s="0"/>
+      <c r="ALX12" s="0"/>
+      <c r="ALY12" s="0"/>
+      <c r="ALZ12" s="0"/>
+      <c r="AMA12" s="0"/>
+      <c r="AMB12" s="0"/>
+      <c r="AMC12" s="0"/>
+      <c r="AMD12" s="0"/>
+      <c r="AME12" s="0"/>
+      <c r="AMF12" s="0"/>
+      <c r="AMG12" s="0"/>
       <c r="AMH12" s="0"/>
       <c r="AMI12" s="0"/>
       <c r="AMJ12" s="0"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="13">
-      <c r="A13" s="7" t="s">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="13" s="7">
+      <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="0" t="s">
+      <c r="G13" s="6"/>
+      <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
+      <c r="K13" s="0"/>
+      <c r="L13" s="0"/>
+      <c r="M13" s="0"/>
+      <c r="N13" s="0"/>
+      <c r="O13" s="0"/>
+      <c r="P13" s="0"/>
+      <c r="Q13" s="0"/>
+      <c r="R13" s="0"/>
+      <c r="S13" s="0"/>
+      <c r="T13" s="0"/>
+      <c r="U13" s="0"/>
+      <c r="V13" s="0"/>
+      <c r="W13" s="0"/>
+      <c r="X13" s="0"/>
+      <c r="Y13" s="0"/>
+      <c r="Z13" s="0"/>
+      <c r="AA13" s="0"/>
+      <c r="AB13" s="0"/>
+      <c r="AC13" s="0"/>
+      <c r="AD13" s="0"/>
+      <c r="AE13" s="0"/>
+      <c r="AF13" s="0"/>
+      <c r="AG13" s="0"/>
+      <c r="AH13" s="0"/>
+      <c r="AI13" s="0"/>
+      <c r="ALX13" s="0"/>
+      <c r="ALY13" s="0"/>
+      <c r="ALZ13" s="0"/>
+      <c r="AMA13" s="0"/>
+      <c r="AMB13" s="0"/>
+      <c r="AMC13" s="0"/>
+      <c r="AMD13" s="0"/>
+      <c r="AME13" s="0"/>
+      <c r="AMF13" s="0"/>
+      <c r="AMG13" s="0"/>
+      <c r="AMH13" s="0"/>
+      <c r="AMI13" s="0"/>
+      <c r="AMJ13" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="14" s="7">
+      <c r="A14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
+      <c r="M14" s="0"/>
+      <c r="N14" s="0"/>
+      <c r="O14" s="0"/>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="0"/>
+      <c r="S14" s="0"/>
+      <c r="T14" s="0"/>
+      <c r="U14" s="0"/>
+      <c r="V14" s="0"/>
+      <c r="W14" s="0"/>
+      <c r="X14" s="0"/>
+      <c r="Y14" s="0"/>
+      <c r="Z14" s="0"/>
+      <c r="AA14" s="0"/>
+      <c r="AB14" s="0"/>
+      <c r="AC14" s="0"/>
+      <c r="AD14" s="0"/>
+      <c r="AE14" s="0"/>
+      <c r="AF14" s="0"/>
+      <c r="AG14" s="0"/>
+      <c r="AH14" s="0"/>
+      <c r="AI14" s="0"/>
+      <c r="ALX14" s="0"/>
+      <c r="ALY14" s="0"/>
+      <c r="ALZ14" s="0"/>
+      <c r="AMA14" s="0"/>
+      <c r="AMB14" s="0"/>
+      <c r="AMC14" s="0"/>
+      <c r="AMD14" s="0"/>
+      <c r="AME14" s="0"/>
+      <c r="AMF14" s="0"/>
+      <c r="AMG14" s="0"/>
+      <c r="AMH14" s="0"/>
+      <c r="AMI14" s="0"/>
+      <c r="AMJ14" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="15">
+      <c r="A15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="16">
+      <c r="A16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="17">
+      <c r="A17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="14">
-      <c r="A14" s="9" t="s">
+      <c r="G17" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="18">
+      <c r="A18" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="B18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9" t="s">
+      <c r="E18" s="8"/>
+      <c r="F18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="0" t="s">
+      <c r="G18" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="19">
+      <c r="A19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="20">
+      <c r="A20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="21">
+      <c r="A21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="22">
+      <c r="A22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="23">
+      <c r="A23" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="24">
+      <c r="A24" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="25">
+      <c r="A25" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="26">
+      <c r="A26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="27">
+      <c r="A27" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="28">
+      <c r="A28" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="10"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="29">
+      <c r="A29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="30">
+      <c r="A30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="15">
-      <c r="A15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="9" t="s">
+      <c r="G30" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="31">
+      <c r="A31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="32">
+      <c r="A32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="33">
+      <c r="A33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="34">
+      <c r="A34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="35">
+      <c r="A35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="36">
+      <c r="A36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="37">
+      <c r="A37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="38">
+      <c r="A38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D38" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E38" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="0" t="s">
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="39">
+      <c r="A39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="40">
+      <c r="A40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="41">
+      <c r="A41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="42">
+      <c r="A42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="43">
+      <c r="A43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="16">
-      <c r="A16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="G43" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="44">
+      <c r="A44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="45">
+      <c r="A45" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9" t="s">
+      <c r="C45" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="46">
+      <c r="A46" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="47">
+      <c r="A47" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="48">
+      <c r="A48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="0" t="s">
+      <c r="E48" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="49">
+      <c r="A49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G49" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="50">
+      <c r="A50" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="51">
+      <c r="A51" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="52">
+      <c r="A52" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="53">
+      <c r="A53" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="54">
+      <c r="A54" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G54" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="55">
+      <c r="A55" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="56">
+      <c r="A56" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="17">
-      <c r="A17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="G56" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="57">
+      <c r="A57" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="58">
+      <c r="A58" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G58" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="59">
+      <c r="A59" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9" t="s">
+      <c r="C59" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="60">
+      <c r="A60" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G60" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="61">
+      <c r="A61" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="62">
+      <c r="A62" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G62" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="63">
+      <c r="A63" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G63" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="64">
+      <c r="A64" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="65">
+      <c r="A65" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E65" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="0" t="s">
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="66">
+      <c r="A66" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G66" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="67">
+      <c r="A67" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="68">
+      <c r="A68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="18">
-      <c r="A18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="G68" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="69">
+      <c r="A69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="70">
+      <c r="A70" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G70" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="71">
+      <c r="A71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G71" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="72">
+      <c r="A72" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9" t="s">
+      <c r="C72" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G72" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="73">
+      <c r="A73" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="74">
+      <c r="A74" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="19">
-      <c r="A19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="E74" s="4"/>
+      <c r="F74" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G74" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="75">
+      <c r="A75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D75" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5" t="s">
+      <c r="E75" s="4"/>
+      <c r="F75" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="20">
-      <c r="A20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="G75" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="76">
+      <c r="A76" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D76" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E76" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="21">
-      <c r="A21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5" t="s">
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="77">
+      <c r="A77" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="22">
-      <c r="A22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="23">
-      <c r="A23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5" t="s">
+      <c r="E77" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="78">
+      <c r="A78" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="24">
-      <c r="A24" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="25">
-      <c r="A25" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="26">
-      <c r="A26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="27">
-      <c r="A27" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7" t="s">
+      <c r="E78" s="4"/>
+      <c r="F78" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="28">
-      <c r="A28" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7" t="s">
+      <c r="G78" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="79">
+      <c r="A79" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="0" t="s">
-        <v>19</v>
-      </c>
+      <c r="D79" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1242,31 +2470,31 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="27.4234693877551" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="27.8520408163265" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="27.2857142857143" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="27.0" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="18.5765306122449" collapsed="true"/>
-    <col min="6" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.4234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8520408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.6734693877551"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>2</v>
@@ -1274,16 +2502,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>4</v>
@@ -1305,44 +2533,86 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C6" activeCellId="0" pane="topLeft" sqref="C6"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="D1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="I9" activeCellId="0" pane="topLeft" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="20.2959183673469" collapsed="true"/>
-    <col min="2" max="4" hidden="false" style="0" width="18.8520408163265" collapsed="true"/>
-    <col min="5" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.4234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8520408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.2959183673469"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="18.8520408163265"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.9030612244898"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="18.8520408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.6734693877551"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>77</v>
+      <c r="A2" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>94</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="0" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1362,32 +2632,60 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="E11" activeCellId="0" pane="topLeft" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="27.4234693877551" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="18.0" collapsed="true"/>
-    <col min="3" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.4234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8520408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.4234693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.6734693877551"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="8" t="s">
-        <v>75</v>
+      <c r="A2" s="0" t="s">
+        <v>92</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1407,31 +2705,59 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A8" activeCellId="0" pane="topLeft" sqref="A8"/>
+      <selection activeCell="D27" activeCellId="0" pane="topLeft" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="23.1173469387755" collapsed="true"/>
-    <col min="2" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.4234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8520408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
-      <c r="A2" s="8" t="s">
-        <v>76</v>
+      <c r="A2" s="0" t="s">
+        <v>92</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1451,32 +2777,198 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
+      <selection activeCell="D16" activeCellId="0" pane="topLeft" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="22.4438775510204" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="18.2755102040816" collapsed="true"/>
-    <col min="3" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.4234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8520408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.5765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="E8" activeCellId="0" pane="topLeft" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.4234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8520408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.515306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.5765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
+      <c r="A1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="2">
+      <c r="A2" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C16" activeCellId="0" pane="topLeft" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.8520408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.4438775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.2755102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
+      <c r="A1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="2">
+      <c r="A2" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>4</v>
       </c>
     </row>
